--- a/Typologie.xlsx
+++ b/Typologie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC782D-C649-F345-AB46-50DCD27A16BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3A61C-9887-9C43-9DCD-9D9488AFA7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44800" yWindow="-8240" windowWidth="21600" windowHeight="10720" xr2:uid="{A3A6CDAA-F138-A842-86E7-9D8409F2E93C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$B$632</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$B$710</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="703">
   <si>
     <t>blogs.discovermagazine.com</t>
   </si>
@@ -1928,6 +1928,225 @@
   </si>
   <si>
     <t>News</t>
+  </si>
+  <si>
+    <t>raphazlab.wordpress.com</t>
+  </si>
+  <si>
+    <t>mythsofvisionscience.wordpress.com</t>
+  </si>
+  <si>
+    <t>liorpachter.wordpress.com</t>
+  </si>
+  <si>
+    <t>muircheart.wordpress.com</t>
+  </si>
+  <si>
+    <t>notreproducible.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>jcoynester.wordpress.com</t>
+  </si>
+  <si>
+    <t>raphazlab.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>garstats.wordpress.com</t>
+  </si>
+  <si>
+    <t>mrsuttonntu.wordpress.com</t>
+  </si>
+  <si>
+    <t>ferniglab.wordpress.com</t>
+  </si>
+  <si>
+    <t>blushgreengrassatafridayafternoon.wordpress.com</t>
+  </si>
+  <si>
+    <t>plagiarismkarlik.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>whyevolutionistrue.wordpress.com</t>
+  </si>
+  <si>
+    <t>telescoper.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>andthentheresphysics.wordpress.com</t>
+  </si>
+  <si>
+    <t>dynamicecology.wordpress.com</t>
+  </si>
+  <si>
+    <t>quantpalaeo.wordpress.com</t>
+  </si>
+  <si>
+    <t>replicationindex.wordpress.com</t>
+  </si>
+  <si>
+    <t>telescoper.wordpress.com</t>
+  </si>
+  <si>
+    <t>raphazlab.wordpre</t>
+  </si>
+  <si>
+    <t>elenadragomirro.wordpress.com</t>
+  </si>
+  <si>
+    <t>evoanth.wordpress.com</t>
+  </si>
+  <si>
+    <t>hardsci.wordpress.com</t>
+  </si>
+  <si>
+    <t>hireslab.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>patrickmatthewproject.wordpress.com</t>
+  </si>
+  <si>
+    <t>scienceintegritydigest.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>scienceretractions.wordpress.com</t>
+  </si>
+  <si>
+    <t>superrecognizer.wordpress.com</t>
+  </si>
+  <si>
+    <t>igorpak.wordpress.com</t>
+  </si>
+  <si>
+    <t>raphazlab.wordprehttps</t>
+  </si>
+  <si>
+    <t>scientistabe.wordpress.com</t>
+  </si>
+  <si>
+    <t>astrostatistics.wordpress.com</t>
+  </si>
+  <si>
+    <t>benoitguenard.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>biomickwatson.wordpress.com</t>
+  </si>
+  <si>
+    <t>doutoregon.wordpress.com</t>
+  </si>
+  <si>
+    <t>forensicdnaconsulting.wordpress.com</t>
+  </si>
+  <si>
+    <t>gravityprobebpseudonyms.wordpress.com</t>
+  </si>
+  <si>
+    <t>hellmannreport.wordpress.com</t>
+  </si>
+  <si>
+    <t>joedunckley.wordpress.com</t>
+  </si>
+  <si>
+    <t>kogiasimus.wordpress.com</t>
+  </si>
+  <si>
+    <t>krescook.wordpress.com</t>
+  </si>
+  <si>
+    <t>lgbthealthequity.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>mbnuijten.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>mrdrscienceteacher.wordpress.com</t>
+  </si>
+  <si>
+    <t>neuroneurotic.wordpress.com</t>
+  </si>
+  <si>
+    <t>nsaunders.wordpress.com</t>
+  </si>
+  <si>
+    <t>penninstituteonaging.wordpress.com</t>
+  </si>
+  <si>
+    <t>prof77.wordpress.com</t>
+  </si>
+  <si>
+    <t>propastinteingecije.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>pyrophosphorylation.wordpress.com</t>
+  </si>
+  <si>
+    <t>raphazlabcommons.wordpress.com</t>
+  </si>
+  <si>
+    <t>rxnm.wordpress.com</t>
+  </si>
+  <si>
+    <t>sanquindigests.wordpress.com</t>
+  </si>
+  <si>
+    <t>sbseminar.wordpress.com</t>
+  </si>
+  <si>
+    <t>scholarlyoa.files.wordpress.com.secure.scihub.cc</t>
+  </si>
+  <si>
+    <t>sciencemishandled.wordpress.com</t>
+  </si>
+  <si>
+    <t>scienceofhumanpotential.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>tallbloke.wordpress.com</t>
+  </si>
+  <si>
+    <t>tangledwoof.wordpress.com</t>
+  </si>
+  <si>
+    <t>aemcdonald.wordpress.com</t>
+  </si>
+  <si>
+    <t>carloraganit.wordpress.com</t>
+  </si>
+  <si>
+    <t>gregashman.wordpress.com</t>
+  </si>
+  <si>
+    <t>melivet.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>metaphrastes.wordpress.com</t>
+  </si>
+  <si>
+    <t>pgibertie.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>prairiestopatchreefs.wordpress.com</t>
+  </si>
+  <si>
+    <t>propastinteingecije.wordpress.com</t>
+  </si>
+  <si>
+    <t>scholarlyperio.wordpress.com</t>
+  </si>
+  <si>
+    <t>tenureshewrote.wordpress.com</t>
+  </si>
+  <si>
+    <t>todayscircuits.wordpress.com</t>
+  </si>
+  <si>
+    <t>mathematicalneuroscience.files.wordpress.com</t>
+  </si>
+  <si>
+    <t>mindgangsta.wordpress.com</t>
+  </si>
+  <si>
+    <t>rjlipton.wordpress.com</t>
   </si>
 </sst>
 </file>
@@ -2339,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F10E843-5129-1947-84C0-44891281387F}">
-  <dimension ref="A1:B632"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
-      <selection activeCell="E618" sqref="E618"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7404,6 +7623,630 @@
       </c>
       <c r="B632" s="2" t="s">
         <v>629</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Typologie.xlsx
+++ b/Typologie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddi/Documents/Pubpeer project/Pubpeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3A61C-9887-9C43-9DCD-9D9488AFA7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742580F-E571-064E-8BB8-E36E17885FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44800" yWindow="-8240" windowWidth="21600" windowHeight="10720" xr2:uid="{A3A6CDAA-F138-A842-86E7-9D8409F2E93C}"/>
   </bookViews>
@@ -2560,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F10E843-5129-1947-84C0-44891281387F}">
   <dimension ref="A1:B710"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
